--- a/2019年销售人员业务跟踪表.xlsx
+++ b/2019年销售人员业务跟踪表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="前线人员整体保费排名" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="前线人员车险保费排名" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="前线人员非车险保费排名" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="后线人员整体保费排名" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="曲靖前线人员整体保费跟踪表" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16386,7 +16386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16397,7 +16397,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>后线人员整体保费排名</t>
+          <t>曲靖前线人员整体保费跟踪表</t>
         </is>
       </c>
     </row>
@@ -16414,7 +16414,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>整体保费（万元）</t>
+          <t>保费（万元）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -16439,21 +16439,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>丁德俊</t>
+          <t>陈俊</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>469.307277</v>
+        <v>223.63429</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>文山中心支公司丘北营销服务部</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2017-10-31</t>
-        </is>
+          <t>2019-06-12</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>21.803001</v>
       </c>
     </row>
     <row r="4">
@@ -16462,21 +16470,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>高福涛</t>
+          <t>俞丽芳</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>388.6079470000073</v>
+        <v>213.427171</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>云南分公司航旅出行项目（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2016-05-24</t>
-        </is>
+          <t>2015-08-17</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9.517079999999998</v>
       </c>
     </row>
     <row r="5">
@@ -16485,21 +16501,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>苏恒</t>
+          <t>朱菊美</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>266.453655</v>
+        <v>197.248012</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2012-11-12</t>
-        </is>
+          <t>2015-05-01</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>14.897455</v>
       </c>
     </row>
     <row r="6">
@@ -16508,21 +16532,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>龚林</t>
+          <t>赵福庆</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>127.709039</v>
+        <v>194.796946</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2012-11-01</t>
-        </is>
+          <t>2015-08-17</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>22.433428</v>
       </c>
     </row>
     <row r="7">
@@ -16531,21 +16563,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>张文景</t>
+          <t>凡锐</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61.530387</v>
+        <v>193.502095</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>文山中心支公司丘北营销服务部</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>中级客户经理B级</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2017-04-25</t>
-        </is>
+          <t>2018-10-08</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>18.348982</v>
       </c>
     </row>
     <row r="8">
@@ -16554,21 +16594,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>段钦</t>
+          <t>黄初雪</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61.040683</v>
+        <v>183.521263</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>保山中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2018-09-04</t>
-        </is>
+          <t>2018-12-01</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>39.64537</v>
       </c>
     </row>
     <row r="9">
@@ -16577,21 +16625,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>王朝东</t>
+          <t>张天宇</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36.54189699999998</v>
+        <v>179.693657</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>云南分公司勐腊营销服务部</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
-        </is>
+          <t>2019-03-18</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16600,21 +16656,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>余晶晶</t>
+          <t>宋兰竹</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.579185</v>
+        <v>174.608761</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2016-04-25</t>
-        </is>
+          <t>2016-01-26</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>12.347318</v>
       </c>
     </row>
     <row r="11">
@@ -16623,21 +16687,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>杨天巧</t>
+          <t>邓金英</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26.983036</v>
+        <v>171.246683</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>云南分公司砚山支公司营业一部（虚拟）</t>
+          <t>云南分公司会泽支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2016-08-25</t>
-        </is>
+          <t>2018-07-04</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>14.008507</v>
       </c>
     </row>
     <row r="12">
@@ -16646,21 +16718,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>胥保忠</t>
+          <t>安兴春</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25.303352</v>
+        <v>164.828323</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2013-10-01</t>
-        </is>
+          <t>2017-08-11</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.990459</v>
       </c>
     </row>
     <row r="13">
@@ -16669,21 +16749,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>胡晓</t>
+          <t>范菊花</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.99705</v>
+        <v>157.375355</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>云南分公司春怡雅苑营销服务部</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2007-11-25</t>
-        </is>
+          <t>2019-05-13</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -16692,21 +16780,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>梭得</t>
+          <t>缪祥汝</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.110649</v>
+        <v>157.217353</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>西双版纳中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>中级团队经理E级</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2018-06-01</t>
-        </is>
+          <t>2018-10-08</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7.40155</v>
       </c>
     </row>
     <row r="15">
@@ -16715,21 +16811,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>孙小雅</t>
+          <t>陈俊波</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.880383</v>
+        <v>142.465766</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>保山中心支公司营业一部（虚拟）</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2012-08-13</t>
-        </is>
+          <t>2018-08-30</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>21.803001</v>
       </c>
     </row>
     <row r="16">
@@ -16738,21 +16842,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>唐芸华</t>
+          <t>李雄</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>13.067227</v>
+        <v>138.769767</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>曲靖中心支公司营业一部（虚拟）</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2013-11-01</t>
-        </is>
+          <t>2017-07-26</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>17.324763</v>
       </c>
     </row>
     <row r="17">
@@ -16761,21 +16873,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>曹艳飞</t>
+          <t>周金萍</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.455723</v>
+        <v>136.868472</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2014-01-01</t>
-        </is>
+          <t>2017-02-15</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>14.902303</v>
       </c>
     </row>
     <row r="18">
@@ -16784,21 +16904,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>崔明</t>
+          <t>周旭盛</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.480392</v>
+        <v>134.168819</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>初级团队经理C级</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2012-05-14</t>
-        </is>
+          <t>2017-07-07</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.837677</v>
       </c>
     </row>
     <row r="19">
@@ -16807,21 +16935,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>熊洎雯</t>
+          <t>杨志粉</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.296258999999999</v>
+        <v>134.056619</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>云南分公司安宁市营销服务部</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2017-10-09</t>
-        </is>
+          <t>2017-04-07</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>9.525252</v>
       </c>
     </row>
     <row r="20">
@@ -16830,21 +16966,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>张春林</t>
+          <t>何江涛</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.704561999999999</v>
+        <v>127.307128</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
+          <t>云南分公司罗平支公司</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2008-04-15</t>
-        </is>
+          <t>2016-08-11</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>14.011775</v>
       </c>
     </row>
     <row r="21">
@@ -16853,21 +16997,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>周静</t>
+          <t>赵美</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.548613</v>
+        <v>124.328748</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>中级客户经理D级</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2017-03-27</t>
-        </is>
+          <t>2016-11-01</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>14.528361</v>
       </c>
     </row>
     <row r="22">
@@ -16876,21 +17028,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>刘秋艳</t>
+          <t>李小文</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.147643</v>
+        <v>122.341982</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2018-07-04</t>
-        </is>
+          <t>2017-05-24</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>10.961662</v>
       </c>
     </row>
     <row r="23">
@@ -16899,21 +17059,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>刘颖杰</t>
+          <t>王振荣</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.657674</v>
+        <v>113.599484</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2008-05-26</t>
-        </is>
+          <t>2015-11-16</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>14.037299</v>
       </c>
     </row>
     <row r="24">
@@ -16922,21 +17090,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>钟裕国</t>
+          <t>王洪成</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.135134</v>
+        <v>110.166404</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>怒江中心支公司营业一部（虚拟）</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2017-10-26</t>
-        </is>
+          <t>2016-04-26</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>6.982660000000001</v>
       </c>
     </row>
     <row r="25">
@@ -16945,21 +17121,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>俞海坤</t>
+          <t>保伏霞</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.284491</v>
+        <v>103.920016</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2013-09-01</t>
-        </is>
+          <t>2013-06-06</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8.452881</v>
       </c>
     </row>
     <row r="26">
@@ -16968,21 +17152,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>茶树秀</t>
+          <t>陈静</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.901513</v>
+        <v>102.2046</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>怒江中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2015-07-01</t>
-        </is>
+          <t>2017-03-01</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5.212940000000001</v>
       </c>
     </row>
     <row r="27">
@@ -16991,21 +17183,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>杨渝</t>
+          <t>付加兵</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.626203</v>
+        <v>100.928692</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2018-04-03</t>
-        </is>
+          <t>2019-04-16</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -17014,21 +17214,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>李倩</t>
+          <t>黄丽梅</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.304693</v>
+        <v>99.03681099999999</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2018-12-13</t>
-        </is>
+          <t>2016-11-02</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>8.082842999999999</v>
       </c>
     </row>
     <row r="29">
@@ -17037,21 +17245,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>姜金吟</t>
+          <t>李丽</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.895702</v>
+        <v>95.78270400000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2010-08-01</t>
-        </is>
+          <t>2018-01-10</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>6.661840999999999</v>
       </c>
     </row>
     <row r="30">
@@ -17060,21 +17276,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>梁勇鹏</t>
+          <t>黄小关</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.83187</v>
+        <v>94.16389599999999</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>保山中心支公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2016-12-01</t>
-        </is>
+          <t>2015-11-30</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>11.495345</v>
       </c>
     </row>
     <row r="31">
@@ -17083,21 +17307,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>丁俊叶</t>
+          <t>刘清</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.622674</v>
+        <v>93.833316</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2016-07-25</t>
-        </is>
+          <t>2019-10-01</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -17106,21 +17338,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>赵佳宇</t>
+          <t>申文</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.38562</v>
+        <v>87.078416</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
-        </is>
+          <t>2017-05-23</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>8.369487000000001</v>
       </c>
     </row>
     <row r="33">
@@ -17129,21 +17369,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>李星辰</t>
+          <t>高云达</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.095305</v>
+        <v>85.28541000000003</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>西双版纳中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2018-05-14</t>
-        </is>
+          <t>2014-01-01</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>14.907695</v>
       </c>
     </row>
     <row r="34">
@@ -17152,21 +17400,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>孙俊</t>
+          <t>张龙泉</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.084714</v>
+        <v>84.02281900000001</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>云南分公司东川营销服务部</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2014-08-15</t>
-        </is>
+          <t>2016-04-26</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.606021</v>
       </c>
     </row>
     <row r="35">
@@ -17175,21 +17431,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>赵滢</t>
+          <t>李婷</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.072179</v>
+        <v>75.49143100000001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>保山中心支公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2012-08-13</t>
-        </is>
+          <t>2019-05-01</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -17198,21 +17462,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>张劼</t>
+          <t>付朝津</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.964708</v>
+        <v>74.42925200000001</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司会泽支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2018-06-11</t>
-        </is>
+          <t>2013-10-01</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -17221,21 +17493,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>张志文</t>
+          <t>向学昆</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.8986729999999999</v>
+        <v>69.73370799999999</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
+          <t>云南分公司罗平支公司</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>初级客户经理B级</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2015-12-21</t>
-        </is>
+          <t>2018-03-19</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>8.129532000000001</v>
       </c>
     </row>
     <row r="38">
@@ -17244,21 +17524,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>高国铣</t>
+          <t>杨宝明</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.855849</v>
+        <v>68.02475800000001</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2013-10-15</t>
-        </is>
+          <t>2018-04-01</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>6.904793</v>
       </c>
     </row>
     <row r="39">
@@ -17267,21 +17555,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>徐燕</t>
+          <t>牛月敏</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.8209</v>
+        <v>63.961373</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司罗平支公司</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2007-12-24</t>
-        </is>
+          <t>2017-09-13</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>5.240789</v>
       </c>
     </row>
     <row r="40">
@@ -17290,21 +17586,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>周瑛</t>
+          <t>谌莉</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.713018</v>
+        <v>61.01358399999999</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>西双版纳中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2006-04-01</t>
-        </is>
+          <t>2018-12-01</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>14.713719</v>
       </c>
     </row>
     <row r="41">
@@ -17313,21 +17617,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>尹文浩</t>
+          <t>伏林海</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.624067</v>
+        <v>60.433504</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>保山中心支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2012-08-10</t>
-        </is>
+          <t>2014-07-01</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>4.537912</v>
       </c>
     </row>
     <row r="42">
@@ -17336,21 +17648,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>李晓莉</t>
+          <t>赵清</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6238830000000001</v>
+        <v>46.90617099999999</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2016-01-04</t>
-        </is>
+          <t>2019-09-01</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -17359,21 +17679,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>李彩银</t>
+          <t>吕则贵</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5891339999999999</v>
+        <v>45.66551699999999</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>中级团队经理E级</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2013-04-10</t>
-        </is>
+          <t>2017-02-15</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>9.142825</v>
       </c>
     </row>
     <row r="44">
@@ -17382,21 +17710,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>徐丹</t>
+          <t>陈富明</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.562187</v>
+        <v>45.397596</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司罗平支公司</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>中级客户经理E级</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2015-11-02</t>
-        </is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -17405,21 +17741,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>谢洪</t>
+          <t>何万勇</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.476417</v>
+        <v>38.65562899999998</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司会泽支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>初级客户经理D级</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2005-05-25</t>
-        </is>
+          <t>2019-04-12</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -17428,21 +17772,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>刘妍</t>
+          <t>张笑晓</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.465848</v>
+        <v>30.727847</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2017-08-14</t>
-        </is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0.883186</v>
       </c>
     </row>
     <row r="47">
@@ -17451,21 +17803,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>石云清</t>
+          <t>何亚琼</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.446263</v>
+        <v>29.605683</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司罗平支公司</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>初级团队经理D级</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2013-05-08</t>
-        </is>
+          <t>2016-01-29</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0.7212280000000001</v>
       </c>
     </row>
     <row r="48">
@@ -17474,21 +17834,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>洪凤</t>
+          <t>高崇刚</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.4342780000000001</v>
+        <v>28.03424</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>云南分公司腾冲支公司营业一部（虚拟）</t>
+          <t>云南分公司宣威支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>中级客户经理C级</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2016-08-09</t>
-        </is>
+          <t>2019-05-13</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -17497,21 +17865,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>杨艳</t>
+          <t>杜鹃</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.420232</v>
+        <v>26.242287</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>云南分公司云龙支公司营业一部（虚拟）</t>
+          <t>云南分公司沾益支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>初级客户经理C级</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2018-12-01</t>
-        </is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -17520,21 +17896,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>杨艳芹</t>
+          <t>陈达营</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.420232</v>
+        <v>8.702120000000001</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>云南分公司洱源支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2018-09-01</t>
-        </is>
+          <t>2019-09-01</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -17543,21 +17927,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>陈平</t>
+          <t>谢晓辉</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.41527</v>
+        <v>5.472081999999999</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>云南分公司施甸支公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2013-02-18</t>
-        </is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -17566,21 +17958,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>张小龙</t>
+          <t>张春芳</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.363916</v>
+        <v>5.020449</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>曲靖中心支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>初级客户经理A级</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2013-04-08</t>
-        </is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -17589,21 +17989,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>张丽芬</t>
+          <t>王树堂</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.346095</v>
+        <v>1.869486</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>云南分公司勐腊营销服务部</t>
+          <t>师宗支公司营业一部（虚拟）</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>中级团队经理D级</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2018-04-23</t>
-        </is>
+          <t>2014-02-01</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -17612,1746 +18020,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>李路茜</t>
+          <t>王石东</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.32167</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>云南分公司营业一部（虚拟）</t>
+          <t>云南分公司陆良营销服务部</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>初级团队经理A级</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2016-01-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>汪瑞盈</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0.315803</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2007-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>杨东雁</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>0.305576</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2008-08-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>赵庆兰</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>0.299291</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>西双版纳中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2012-07-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>王晓娟</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0.285346</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2013-01-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>路桧</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0.273547</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>云南分公司昭通昭阳区支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2017-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>闭兴宇</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0.269638</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>云南分公司漾濞支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2015-12-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>尹凤萍</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0.259051</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2014-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>李晨</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0.245823</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2008-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>熊建波</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0.243958</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2012-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>王丽洁</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.242813</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2005-08-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>赵应帅</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0.215755</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2018-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>陈晓羽</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0.154169</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2013-05-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>张利钱</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.135852</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>云南分公司弥渡支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2017-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>朱景</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.132867</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2010-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>瞿润方</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0.113204</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2018-08-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>陈喆</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0.077283</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>怒江中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2018-04-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>陶云虹</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.07433900000000002</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2013-03-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>李雪峰</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0.06900099999999999</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>怒江中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2014-05-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>张建明</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0.045284</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2013-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>张小飞</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0.033963</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>云南分公司会泽支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2019-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>张倩</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.033963</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>云南分公司宾川支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2017-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>邱冰</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0.022169</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2013-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>周广禹</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.018866</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2018-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>余强</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0.012074</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2009-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>何家富</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0.011321</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>云南分公司宾川支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2016-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>郑学冬</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0.011321</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2015-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>杜凤蕊</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0.010266</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2015-05-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>朱洁</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0.00503</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>2019-04-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>余萍</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.00503</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2017-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>钟彩云</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0.003489</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2005-07-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>陶鹏芬</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.001172</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2006-02-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>阮敏树</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+          <t>2013-08-01</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>云南分公司祥云支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>李小溪</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>云南分公司昭通昭阳区支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2019-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>周国东</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2019-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>雷生燕</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>云南分公司马关支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2019-07-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>谢振佳</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2012-06-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>黄泽星</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>文山中心支公司富宁营销服务部</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2015-06-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>邓小云</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2006-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>岩莹飞</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>西双版纳中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2016-06-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>王美玲</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>师宗支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2014-08-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>李杨柳</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>云南分公司施甸支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2016-01-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>何德焕</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2015-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>张惠玲</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>云南分公司香榭丽园营销服务部</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2010-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>王力</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2016-02-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>李丽</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>云南分公司百大国际花园营销服务部</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2013-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>刘培武</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2013-09-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>熊志鸿</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2005-07-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>何金华</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2013-10-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>项玉</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2012-06-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>杨帆</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2015-04-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>赵加敏</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2016-08-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>孙娜</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2013-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>袁文萍</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>云南分公司陆良营销服务部</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2013-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>侬尹欢</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>文山中心支公司广南营销服务部</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2016-05-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>杨皓</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2015-09-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>赵万红</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>师宗支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2014-08-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>牛洪</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2017-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>卢小雪</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>云南分公司宜良营销服务部</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2017-05-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>杨华顺</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2018-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>杨雄</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2018-12-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>董慧</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2019-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>许妮</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>云南分公司云龙支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2018-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>白兴航</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>文山中心支公司富宁营销服务部</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2018-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>杨清艳</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>云南分公司罗平支公司</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2018-04-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>彭军</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>大理中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2017-01-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>和娟</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>云南分公司兰坪支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2017-07-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>高泳</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2017-08-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>司超</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2017-10-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>施勇</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>曲靖中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2017-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>孙发云</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2017-09-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>韦福建</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>文山中心支公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2017-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>木丽纳</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>云南分公司营业一部（虚拟）</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2017-05-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>孙云洪</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>云南分公司宜良营销服务部</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2011-05-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>黄爽</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>文山中心支公司富宁营销服务部</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2015-11-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>陈宇</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>勐海营销服务部</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2013-10-01</t>
-        </is>
       </c>
     </row>
   </sheetData>
